--- a/target/test-classes/excel/testData.xlsx
+++ b/target/test-classes/excel/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vibansal\eclipse-workspace\AutomationFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC99F395-9B0D-4116-ABC3-F5EAB9E329E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAD9E65-6E90-428C-A1DF-E1F4AC8A35C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>testName</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2BC482-562B-47D3-8E41-5A461D1AD90D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +503,7 @@
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,16 +511,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -519,50 +531,59 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -570,29 +591,35 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
